--- a/Code/Results/Cases/Case_0_191/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_191/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.04372591537487835</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.8822677054686778</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.02609259249562079</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>23.92356274387544</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002867355175971806</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4466257898121739</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.03888318053785156</v>
+      </c>
+      <c r="D3">
+        <v>0.8046911110220663</v>
+      </c>
+      <c r="E3">
+        <v>0.02450610787742846</v>
+      </c>
+      <c r="F3">
+        <v>23.0034951806428</v>
+      </c>
+      <c r="G3">
+        <v>0.002908335565019016</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.4369461069447595</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.03599270047197933</v>
+      </c>
+      <c r="D4">
+        <v>0.7587008429835578</v>
+      </c>
+      <c r="E4">
+        <v>0.02354046171755009</v>
+      </c>
+      <c r="F4">
+        <v>22.47455865924667</v>
+      </c>
+      <c r="G4">
+        <v>0.002934370449340521</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.4315930922242472</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.03483349527816415</v>
+      </c>
+      <c r="D5">
+        <v>0.74033495246033</v>
+      </c>
+      <c r="E5">
+        <v>0.02314847550825405</v>
+      </c>
+      <c r="F5">
+        <v>22.26750522546234</v>
+      </c>
+      <c r="G5">
+        <v>0.002945206035825676</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.4295527671501134</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.03464207856897872</v>
+      </c>
+      <c r="D6">
+        <v>0.737306954541225</v>
+      </c>
+      <c r="E6">
+        <v>0.02308346166816655</v>
+      </c>
+      <c r="F6">
+        <v>22.23362166028767</v>
+      </c>
+      <c r="G6">
+        <v>0.002947019123253044</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.4292222890153568</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.03597699410507005</v>
+      </c>
+      <c r="D7">
+        <v>0.7584516809312731</v>
+      </c>
+      <c r="E7">
+        <v>0.02353516985504633</v>
+      </c>
+      <c r="F7">
+        <v>22.47173258151071</v>
+      </c>
+      <c r="G7">
+        <v>0.002934515657596615</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.4315650137939286</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.04203755019003097</v>
+      </c>
+      <c r="D8">
+        <v>0.8551549757834209</v>
+      </c>
+      <c r="E8">
+        <v>0.02554343594624164</v>
+      </c>
+      <c r="F8">
+        <v>23.59850359926986</v>
+      </c>
+      <c r="G8">
+        <v>0.00288130825929899</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.4431610670964545</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.05468943507509039</v>
+      </c>
+      <c r="D9">
+        <v>1.059688426066032</v>
+      </c>
+      <c r="E9">
+        <v>0.02957901817143238</v>
+      </c>
+      <c r="F9">
+        <v>26.12153665112828</v>
+      </c>
+      <c r="G9">
+        <v>0.002783563211027129</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.4709545895602076</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.06462231669263474</v>
+      </c>
+      <c r="D10">
+        <v>1.221963628227684</v>
+      </c>
+      <c r="E10">
+        <v>0.03265056337378525</v>
+      </c>
+      <c r="F10">
+        <v>28.20991892049767</v>
+      </c>
+      <c r="G10">
+        <v>0.002715260821875816</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.4950341310755846</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.06932321259684215</v>
+      </c>
+      <c r="D11">
+        <v>1.299146487613712</v>
+      </c>
+      <c r="E11">
+        <v>0.03408320959120203</v>
+      </c>
+      <c r="F11">
+        <v>29.22220057777554</v>
+      </c>
+      <c r="G11">
+        <v>0.002684821870079013</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.5069327173203533</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.0711337507294445</v>
+      </c>
+      <c r="D12">
+        <v>1.328929703396966</v>
+      </c>
+      <c r="E12">
+        <v>0.03463197559575804</v>
+      </c>
+      <c r="F12">
+        <v>29.61556357675454</v>
+      </c>
+      <c r="G12">
+        <v>0.002673374152502111</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.5115886662146352</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.07074239376383673</v>
+      </c>
+      <c r="D13">
+        <v>1.322489385491508</v>
+      </c>
+      <c r="E13">
+        <v>0.0345134906192186</v>
+      </c>
+      <c r="F13">
+        <v>29.53038079567557</v>
+      </c>
+      <c r="G13">
+        <v>0.002675836324652488</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.5105789939295278</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.06947153121650729</v>
+      </c>
+      <c r="D14">
+        <v>1.301585185141221</v>
+      </c>
+      <c r="E14">
+        <v>0.03412822432489193</v>
+      </c>
+      <c r="F14">
+        <v>29.25435498997263</v>
+      </c>
+      <c r="G14">
+        <v>0.002683878553806961</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.5073126653473707</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.06869718528731994</v>
+      </c>
+      <c r="D15">
+        <v>1.288855437807399</v>
+      </c>
+      <c r="E15">
+        <v>0.03389308930669088</v>
+      </c>
+      <c r="F15">
+        <v>29.08662244268749</v>
+      </c>
+      <c r="G15">
+        <v>0.00268881453710933</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.5053319661870432</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.06431911742220109</v>
+      </c>
+      <c r="D16">
+        <v>1.216993173173819</v>
+      </c>
+      <c r="E16">
+        <v>0.03255774478518347</v>
+      </c>
+      <c r="F16">
+        <v>28.14510601135407</v>
+      </c>
+      <c r="G16">
+        <v>0.00271726180227898</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.4942767253327816</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.0616828360570878</v>
+      </c>
+      <c r="D17">
+        <v>1.173817785465189</v>
+      </c>
+      <c r="E17">
+        <v>0.0317483993524128</v>
+      </c>
+      <c r="F17">
+        <v>27.5841889482034</v>
+      </c>
+      <c r="G17">
+        <v>0.002734867063622622</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.487746290153666</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.06018340253223187</v>
+      </c>
+      <c r="D18">
+        <v>1.149296153844148</v>
+      </c>
+      <c r="E18">
+        <v>0.0312861376633613</v>
+      </c>
+      <c r="F18">
+        <v>27.2673526159482</v>
+      </c>
+      <c r="G18">
+        <v>0.002745053446640893</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.48407811028693</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.05967850145179909</v>
+      </c>
+      <c r="D19">
+        <v>1.141045039936841</v>
+      </c>
+      <c r="E19">
+        <v>0.03113014933274272</v>
+      </c>
+      <c r="F19">
+        <v>27.16104078324656</v>
+      </c>
+      <c r="G19">
+        <v>0.002748513081677774</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.4828508261948912</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.06196169650806382</v>
+      </c>
+      <c r="D20">
+        <v>1.178381125794772</v>
+      </c>
+      <c r="E20">
+        <v>0.03183421098631811</v>
+      </c>
+      <c r="F20">
+        <v>27.64329308208244</v>
+      </c>
+      <c r="G20">
+        <v>0.002732986795192364</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.4884322651631692</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.06984395288000655</v>
+      </c>
+      <c r="D21">
+        <v>1.307709549865933</v>
+      </c>
+      <c r="E21">
+        <v>0.03424120657301088</v>
+      </c>
+      <c r="F21">
+        <v>29.33514881341955</v>
+      </c>
+      <c r="G21">
+        <v>0.002681514319663908</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.508267864364484</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.07517508381938853</v>
+      </c>
+      <c r="D22">
+        <v>1.395513200025675</v>
+      </c>
+      <c r="E22">
+        <v>0.03585142960425713</v>
+      </c>
+      <c r="F22">
+        <v>30.49997014507176</v>
+      </c>
+      <c r="G22">
+        <v>0.002648326973879676</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.5221152556580648</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.07231179030729606</v>
+      </c>
+      <c r="D23">
+        <v>1.348324174756101</v>
+      </c>
+      <c r="E23">
+        <v>0.03498820001241398</v>
+      </c>
+      <c r="F23">
+        <v>29.87247983209227</v>
+      </c>
+      <c r="G23">
+        <v>0.002666002630849625</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.5146385160315958</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.06183557354924574</v>
+      </c>
+      <c r="D24">
+        <v>1.176317109045044</v>
+      </c>
+      <c r="E24">
+        <v>0.03179540615821708</v>
+      </c>
+      <c r="F24">
+        <v>27.61655460825148</v>
+      </c>
+      <c r="G24">
+        <v>0.002733836661473321</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.4881218682587871</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.0511682512678675</v>
+      </c>
+      <c r="D25">
+        <v>1.002479985389868</v>
+      </c>
+      <c r="E25">
+        <v>0.02847230604326612</v>
+      </c>
+      <c r="F25">
+        <v>25.40122917321094</v>
+      </c>
+      <c r="G25">
+        <v>0.002809349348215785</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.4628389278542073</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
